--- a/BalanceSheet/BSX_bal.xlsx
+++ b/BalanceSheet/BSX_bal.xlsx
@@ -4824,7 +4824,7 @@
         <v>9946000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>9788000000.0</v>
+        <v>9791000000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>10610000000.0</v>
@@ -4953,7 +4953,7 @@
         <v>10604000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>10351000000.0</v>
+        <v>10008000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>10887000000.0</v>
